--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5BHEL\Diplomarbeit\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E787CC-9EE9-4809-8956-073B0F0613C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Schulabschlussfahrt</t>
   </si>
@@ -83,12 +84,6 @@
     <t>SAFT, 03.11.2019 (Zuschneiden und Kleben der Tischtennisbälle, Anfertigung des Holzrahmens)</t>
   </si>
   <si>
-    <t>Ansteuerung der WS2812b</t>
-  </si>
-  <si>
-    <t>Aufhängen von Plakaten</t>
-  </si>
-  <si>
     <t>Textausgabe auf der Matrix, Lötarbeit</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>Anfertigung des Fotos für das Plakat, Platinenanfertigung</t>
   </si>
   <si>
-    <t>12.01.2020 (Anzeige der Uhrzeit mit Hintergrund)</t>
-  </si>
-  <si>
     <t>Semesterferien</t>
   </si>
   <si>
@@ -111,12 +103,85 @@
   </si>
   <si>
     <t>Messung des Spannungsabfalls an den LEDs</t>
+  </si>
+  <si>
+    <t>Erstellen Eagle Library ESP Node MCU Modul</t>
+  </si>
+  <si>
+    <t>SAFT(02.11.2019 Erstellen Eagle Library ESP Node MCU Modul)</t>
+  </si>
+  <si>
+    <t>übung mit WS2812b RGB LED Streifen mit fastled.h library</t>
+  </si>
+  <si>
+    <t>wechsel zu WS2812b RGB LED Streifen mit fastled.h library</t>
+  </si>
+  <si>
+    <t>WS2812b Teststreifen mit Arduno Nano ansteuern</t>
+  </si>
+  <si>
+    <t>WS2812b Teststreifen mit Arduino Node MCU ansteuern</t>
+  </si>
+  <si>
+    <t>Installation Arduino IDE und verschiedene libraries</t>
+  </si>
+  <si>
+    <t>Erstellen einer Matrix für das Display</t>
+  </si>
+  <si>
+    <t>Aufhängen von Plakaten für den Tag der offenen Tür</t>
+  </si>
+  <si>
+    <t>erstellen einer Funktion um Ziffern anzuzeigen</t>
+  </si>
+  <si>
+    <t>Implementierung einer Uhrzeit</t>
+  </si>
+  <si>
+    <t>Anzeigen einer virtuellen Uhrzeit</t>
+  </si>
+  <si>
+    <t>Weihnachtsfeier</t>
+  </si>
+  <si>
+    <t>Semesterferien(21.02.2020 optimierungen als Headder File)
+             (22.02.2020 optimierungen als Headder File) kein Erfolg</t>
+  </si>
+  <si>
+    <t>Uhrzeit mit statischen Hintergrund</t>
+  </si>
+  <si>
+    <t>ansatzt für Anzeige der Uhrzeit mit dynamsichen Hintergrund
+12.01.2020 (Anzeige der Uhrzeit mit dynamsichen Hintergrund)</t>
+  </si>
+  <si>
+    <t>Testen eines 3x5 Fonts für einen Texanzeige</t>
+  </si>
+  <si>
+    <t>Datum und Uhrzeit Anzeigen
+Aufhängen von Plakaten für den Tag der offenen Tür</t>
+  </si>
+  <si>
+    <t>Testen eines 3x5 Fonts für einen Texanzeige(nicht erkennbar)</t>
+  </si>
+  <si>
+    <t>Funktion zum Byte reversen</t>
+  </si>
+  <si>
+    <t>Testen eines 3x5 Fonts für einen Texanzeige
+(Text steht auf dem Kopf)</t>
+  </si>
+  <si>
+    <t>Testen eines 5x5 Fonts für einen Texanzeige(erkennbar)</t>
+  </si>
+  <si>
+    <t>Testen eines Lauftextes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -188,6 +253,12 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,16 +540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,28 +606,36 @@
       <c r="A6" s="2">
         <v>43733</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43734</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43740</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43741</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +672,9 @@
       <c r="A14" s="2">
         <v>43761</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +682,7 @@
         <v>43762</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -621,7 +702,7 @@
         <v>43769</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>18</v>
@@ -631,7 +712,9 @@
       <c r="A18" s="2">
         <v>43775</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
@@ -640,7 +723,9 @@
       <c r="A19" s="2">
         <v>43776</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -650,17 +735,19 @@
         <v>43782</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43783</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
@@ -716,43 +803,51 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43810</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43811</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43817</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43818</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,20 +898,22 @@
       <c r="A36" s="2">
         <v>43838</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43839</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>25</v>
+      <c r="B37" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,10 +921,10 @@
         <v>43845</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,56 +932,66 @@
         <v>43846</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43852</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43853</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>20</v>
+      <c r="B41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43859</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43860</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43866</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43867</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -894,7 +1001,7 @@
         <v>43873</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>6</v>
@@ -904,7 +1011,9 @@
       <c r="A47" s="2">
         <v>43874</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,21 +1023,21 @@
         <v>43880</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43881</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>26</v>
+      <c r="B49" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5BHEL\Diplomarbeit\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2E787CC-9EE9-4809-8956-073B0F0613C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FBCA0-9599-4CF2-AF87-BAA9FC3E0158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,6 @@
     <t>Weihnachtsfeier</t>
   </si>
   <si>
-    <t>Semesterferien(21.02.2020 optimierungen als Headder File)
-             (22.02.2020 optimierungen als Headder File) kein Erfolg</t>
-  </si>
-  <si>
     <t>Uhrzeit mit statischen Hintergrund</t>
   </si>
   <si>
@@ -175,7 +171,11 @@
     <t>Testen eines 5x5 Fonts für einen Texanzeige(erkennbar)</t>
   </si>
   <si>
-    <t>Testen eines Lauftextes</t>
+    <t>Semesterferien(14.02.2020 optimierungen als Headder File)
+             (15.02.2020 optimierungen als Headder File) kein Erfolg</t>
+  </si>
+  <si>
+    <t>Testen eines Lauftextes (optimierungen von RTC und DHT22)</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +899,7 @@
         <v>43838</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
@@ -910,7 +910,7 @@
         <v>43839</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>24</v>
@@ -943,7 +943,7 @@
         <v>43852</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -952,7 +952,7 @@
         <v>43853</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>34</v>
@@ -963,7 +963,7 @@
         <v>43859</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -972,7 +972,7 @@
         <v>43860</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -981,7 +981,7 @@
         <v>43866</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -990,7 +990,7 @@
         <v>43867</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
@@ -1034,7 +1034,7 @@
         <v>43881</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>

--- a/Documentation/Zeitplan.xlsx
+++ b/Documentation/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\5BHEL\Diplomarbeit\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\5BHEL\Diplomarbeit\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889FBCA0-9599-4CF2-AF87-BAA9FC3E0158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{974C3BDE-4354-4471-8642-5AC0F6574DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Schulabschlussfahrt</t>
   </si>
@@ -81,9 +81,6 @@
     <t>24.11.2019 (Aufkleben des LED-Streifens auf die Grundplatte, Befestigun der Grundplatte im Rahmen)</t>
   </si>
   <si>
-    <t>SAFT, 03.11.2019 (Zuschneiden und Kleben der Tischtennisbälle, Anfertigung des Holzrahmens)</t>
-  </si>
-  <si>
     <t>Textausgabe auf der Matrix, Lötarbeit</t>
   </si>
   <si>
@@ -105,36 +102,18 @@
     <t>Messung des Spannungsabfalls an den LEDs</t>
   </si>
   <si>
-    <t>Erstellen Eagle Library ESP Node MCU Modul</t>
-  </si>
-  <si>
-    <t>SAFT(02.11.2019 Erstellen Eagle Library ESP Node MCU Modul)</t>
-  </si>
-  <si>
-    <t>übung mit WS2812b RGB LED Streifen mit fastled.h library</t>
-  </si>
-  <si>
-    <t>wechsel zu WS2812b RGB LED Streifen mit fastled.h library</t>
-  </si>
-  <si>
     <t>WS2812b Teststreifen mit Arduno Nano ansteuern</t>
   </si>
   <si>
     <t>WS2812b Teststreifen mit Arduino Node MCU ansteuern</t>
   </si>
   <si>
-    <t>Installation Arduino IDE und verschiedene libraries</t>
-  </si>
-  <si>
     <t>Erstellen einer Matrix für das Display</t>
   </si>
   <si>
     <t>Aufhängen von Plakaten für den Tag der offenen Tür</t>
   </si>
   <si>
-    <t>erstellen einer Funktion um Ziffern anzuzeigen</t>
-  </si>
-  <si>
     <t>Implementierung einer Uhrzeit</t>
   </si>
   <si>
@@ -147,18 +126,7 @@
     <t>Uhrzeit mit statischen Hintergrund</t>
   </si>
   <si>
-    <t>ansatzt für Anzeige der Uhrzeit mit dynamsichen Hintergrund
-12.01.2020 (Anzeige der Uhrzeit mit dynamsichen Hintergrund)</t>
-  </si>
-  <si>
     <t>Testen eines 3x5 Fonts für einen Texanzeige</t>
-  </si>
-  <si>
-    <t>Datum und Uhrzeit Anzeigen
-Aufhängen von Plakaten für den Tag der offenen Tür</t>
-  </si>
-  <si>
-    <t>Testen eines 3x5 Fonts für einen Texanzeige(nicht erkennbar)</t>
   </si>
   <si>
     <t>Funktion zum Byte reversen</t>
@@ -168,14 +136,48 @@
 (Text steht auf dem Kopf)</t>
   </si>
   <si>
-    <t>Testen eines 5x5 Fonts für einen Texanzeige(erkennbar)</t>
-  </si>
-  <si>
-    <t>Semesterferien(14.02.2020 optimierungen als Headder File)
-             (15.02.2020 optimierungen als Headder File) kein Erfolg</t>
-  </si>
-  <si>
-    <t>Testen eines Lauftextes (optimierungen von RTC und DHT22)</t>
+    <t>Ansatz für Anzeige der Uhrzeit mit dynamsichen Hintergrund
+12.01.2020 (Anzeige der Uhrzeit mit dynamsichen Hintergrund)</t>
+  </si>
+  <si>
+    <t>Übung mit WS2812b RGB LED Streifen mit fastled.h Library</t>
+  </si>
+  <si>
+    <t>Erstellen einer Funktion um Ziffern anzuzeigen</t>
+  </si>
+  <si>
+    <t>Anzeige von Datum und Uhrzeit
+Aufhängen von Plakaten für den Tag der offenen Tür</t>
+  </si>
+  <si>
+    <t>Testen eines 3x5 Fonts für einen Texanzeige (nicht erkennbar)</t>
+  </si>
+  <si>
+    <t>Testen eines 5x5 Fonts für einen Texanzeige (erkennbar)</t>
+  </si>
+  <si>
+    <t>Testen eines Lauftextes (Optimierung des Codes)</t>
+  </si>
+  <si>
+    <t>Semesterferien (14.02. - 15.02.2020 Verschuche zur Optimierung als Headder File)</t>
+  </si>
+  <si>
+    <t>Installation der Arduino IDE und verschiedener Libraries</t>
+  </si>
+  <si>
+    <t>SAFT (03.11.2019 Zuschneiden und Kleben der Tischtennisbälle, Anfertigung des Holzrahmens)</t>
+  </si>
+  <si>
+    <t>Erstellen einer Eagle Library (ESP Node MCU Modul)</t>
+  </si>
+  <si>
+    <t>SAFT(02.11.2019 Erstellen einer Eagle Library (ESP Node MCU Modul))</t>
+  </si>
+  <si>
+    <t>WS2812b RGB LED Streifen mit fastled.h Library</t>
+  </si>
+  <si>
+    <t>Eintragung der Diplomarbeit</t>
   </si>
 </sst>
 </file>
@@ -239,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -256,9 +258,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,19 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -562,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -573,14 +572,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43720</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43726</v>
       </c>
@@ -591,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43727</v>
       </c>
@@ -602,64 +605,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43733</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43734</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43740</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43741</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43747</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43748</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43754</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43755</v>
       </c>
@@ -668,25 +671,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43761</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43762</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43768</v>
       </c>
@@ -697,62 +700,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43769</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43775</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43776</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43782</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43783</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43789</v>
       </c>
@@ -761,7 +764,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43790</v>
       </c>
@@ -772,21 +775,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43796</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43797</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43803</v>
       </c>
@@ -797,60 +800,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43804</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43810</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43811</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43817</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>43818</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43824</v>
       </c>
@@ -861,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43825</v>
       </c>
@@ -872,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43831</v>
       </c>
@@ -883,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43863</v>
       </c>
@@ -894,151 +897,165 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43838</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43839</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43845</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43846</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43852</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43853</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43859</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43860</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43866</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43867</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43873</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43874</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43880</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
-        <v>43881</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>47</v>
+        <v>43880</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
